--- a/exemples/cryptoMystPolygon.xlsx
+++ b/exemples/cryptoMystPolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -95,6 +95,39 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : valeur voulue , 0,00000000001 , et date du jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:18:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:46:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:14:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:36:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:36:07</t>
   </si>
 </sst>
 </file>
@@ -467,13 +500,13 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="A5:D22"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.98"/>
   </cols>
   <sheetData>
@@ -548,23 +581,23 @@
       </c>
       <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>0.2002</v>
+        <v>0.1539</v>
       </c>
       <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>0.2002</v>
+        <v>0.187093785310734</v>
       </c>
       <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>0.24024</v>
+        <v>0.224512542372881</v>
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N2" s="9" t="n">
         <v>18</v>
@@ -617,87 +650,165 @@
       <c r="M4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="12" t="n">
+        <v>0.19563</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>45921</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12" t="n">
+        <v>0.17942</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="11" t="n">
+        <v>0.1663</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="11" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="11" t="n">
+        <v>0.1642</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="11" t="n">
+        <v>0.1635</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="11" t="n">
+        <v>0.1608</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="11" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="11" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/exemples/cryptoMystPolygon.xlsx
+++ b/exemples/cryptoMystPolygon.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,7 +565,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
